--- a/data/trans_orig/P5703-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5703-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>293460</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>265336</v>
+        <v>267799</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>319199</v>
+        <v>321163</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4228457385038804</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3823212964513931</v>
+        <v>0.385871005846857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4599333429457962</v>
+        <v>0.4627625581457878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>268</v>
@@ -765,19 +765,19 @@
         <v>263789</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>238862</v>
+        <v>237198</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290592</v>
+        <v>288618</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3832186428072372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3470061024762416</v>
+        <v>0.3445886417665301</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4221573020355879</v>
+        <v>0.4192889921479909</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>551</v>
@@ -786,19 +786,19 @@
         <v>557249</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>520491</v>
+        <v>520247</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>592165</v>
+        <v>593597</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4031133317177666</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3765227286629825</v>
+        <v>0.3763459088998531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4283713418048131</v>
+        <v>0.4294072196532687</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>221912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>197058</v>
+        <v>198537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248002</v>
+        <v>247059</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3197530546568155</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2839406352810446</v>
+        <v>0.2860713739359541</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3573456559716518</v>
+        <v>0.355986299010383</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -836,19 +836,19 @@
         <v>226702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>202887</v>
+        <v>201010</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249568</v>
+        <v>250935</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3293406897402347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2947435721877185</v>
+        <v>0.2920170649929529</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3625598771633357</v>
+        <v>0.3645446582438063</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>451</v>
@@ -857,19 +857,19 @@
         <v>448614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>415555</v>
+        <v>409522</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>483052</v>
+        <v>482081</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3245272404066652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3006117357847746</v>
+        <v>0.2962476689314659</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3494393097174213</v>
+        <v>0.3487367283366138</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>153852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>130697</v>
+        <v>134305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175964</v>
+        <v>175294</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2216847832780255</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1883212625558878</v>
+        <v>0.1935203744763441</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2535456840565382</v>
+        <v>0.252581298808115</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>150</v>
@@ -907,19 +907,19 @@
         <v>147975</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127905</v>
+        <v>127886</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>169061</v>
+        <v>172497</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.214970952604902</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1858141811071132</v>
+        <v>0.1857855632221389</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2456028669961559</v>
+        <v>0.2505938503499739</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>304</v>
@@ -928,19 +928,19 @@
         <v>301827</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>273981</v>
+        <v>272572</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>334242</v>
+        <v>330296</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2183416152863732</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1981977704180172</v>
+        <v>0.197178657763421</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2417900679044889</v>
+        <v>0.2389358321217572</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>23824</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15193</v>
+        <v>15367</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35048</v>
+        <v>35853</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03432788651366637</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0218911773300047</v>
+        <v>0.02214186805557511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05050102967335474</v>
+        <v>0.05166019700554572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -978,19 +978,19 @@
         <v>38548</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28193</v>
+        <v>28081</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51832</v>
+        <v>51178</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05600097915062188</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04095785404524771</v>
+        <v>0.04079503944896933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07529880692929794</v>
+        <v>0.07434828532685699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -999,19 +999,19 @@
         <v>62372</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48541</v>
+        <v>47507</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80555</v>
+        <v>79553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0451200546679871</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03511457307184138</v>
+        <v>0.03436637904764502</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05827312991896882</v>
+        <v>0.05754845203322093</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4852</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001388537047612242</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006991669493364158</v>
+        <v>0.007205187076873803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1049,19 +1049,19 @@
         <v>11336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6383</v>
+        <v>5964</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20575</v>
+        <v>19530</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01646873569700417</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009272232247747619</v>
+        <v>0.008663486335398256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02989019835370047</v>
+        <v>0.02837230940672134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1070,19 +1070,19 @@
         <v>12300</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6643</v>
+        <v>6590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21876</v>
+        <v>22518</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008897757921207873</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004805809883469847</v>
+        <v>0.004767290355555058</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01582488232595097</v>
+        <v>0.01628914892273756</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>451620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>421133</v>
+        <v>420506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>481668</v>
+        <v>482871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4695566461669839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4378597074472068</v>
+        <v>0.4372078036304726</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5007989737875732</v>
+        <v>0.5020492509099735</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>410</v>
@@ -1195,19 +1195,19 @@
         <v>428736</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>398711</v>
+        <v>396303</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>457638</v>
+        <v>459511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4427296932321052</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4117241819430255</v>
+        <v>0.4092378011017311</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4725751540785123</v>
+        <v>0.4745086268272339</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>827</v>
@@ -1216,19 +1216,19 @@
         <v>880356</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>835616</v>
+        <v>838656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>929195</v>
+        <v>926444</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.456097352645665</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.432918418368891</v>
+        <v>0.4344934461644198</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4813999123959945</v>
+        <v>0.4799745773956778</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>280069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>250988</v>
+        <v>253077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309413</v>
+        <v>313579</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2911923698177155</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2609565146780374</v>
+        <v>0.2631283216904735</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3217022768816425</v>
+        <v>0.3260338568032147</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>232</v>
@@ -1266,19 +1266,19 @@
         <v>250707</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226089</v>
+        <v>222039</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>280237</v>
+        <v>279959</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2588900748580445</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2334683397913741</v>
+        <v>0.2292864853952671</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2893834292594322</v>
+        <v>0.2890969504857142</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>496</v>
@@ -1287,19 +1287,19 @@
         <v>530776</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>490541</v>
+        <v>484619</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>572306</v>
+        <v>566081</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2749860540900289</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.254140921223623</v>
+        <v>0.2510729060630125</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.296502177998277</v>
+        <v>0.2932768861272049</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>158542</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>137741</v>
+        <v>135626</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>182548</v>
+        <v>180960</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1648393596991456</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1432115335645993</v>
+        <v>0.141013002829989</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1897980436113142</v>
+        <v>0.1881468044239447</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>159</v>
@@ -1337,19 +1337,19 @@
         <v>171673</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>150129</v>
+        <v>149389</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>197607</v>
+        <v>196198</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1772763895360114</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1550294375466492</v>
+        <v>0.15426511120326</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2040566913883089</v>
+        <v>0.2026015291644168</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>309</v>
@@ -1358,19 +1358,19 @@
         <v>330216</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>298426</v>
+        <v>298137</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>362628</v>
+        <v>366083</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1710791154967615</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1546092136823308</v>
+        <v>0.1544597342583421</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1878712402524066</v>
+        <v>0.1896612188656867</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>60950</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46829</v>
+        <v>48139</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78477</v>
+        <v>80298</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06337048665440008</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04868919696666083</v>
+        <v>0.05005069275935164</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08159408934211156</v>
+        <v>0.08348713922557686</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -1408,19 +1408,19 @@
         <v>98355</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80173</v>
+        <v>80296</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118347</v>
+        <v>117317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1015656848439127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08278925686304146</v>
+        <v>0.08291724044117686</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1222098153633299</v>
+        <v>0.1211463515736089</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1429,19 +1429,19 @@
         <v>159305</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137093</v>
+        <v>137434</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187256</v>
+        <v>186006</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08253331833288062</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07102551314893314</v>
+        <v>0.07120196875060854</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09701417330009382</v>
+        <v>0.09636670439840241</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>10619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5103</v>
+        <v>5221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19744</v>
+        <v>19881</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01104113766175495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005305255650153161</v>
+        <v>0.005428502726061656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0205281995141444</v>
+        <v>0.02067063693002643</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1479,19 +1479,19 @@
         <v>18921</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10994</v>
+        <v>11133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30068</v>
+        <v>30256</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01953815752992616</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01135314787983857</v>
+        <v>0.01149684264197151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03104981118542232</v>
+        <v>0.03124315981158813</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -1500,19 +1500,19 @@
         <v>29540</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19678</v>
+        <v>19197</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42093</v>
+        <v>42154</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01530415943466404</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01019506367901032</v>
+        <v>0.009945574981233092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02180748185021443</v>
+        <v>0.02183951059740113</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>330001</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>304295</v>
+        <v>304028</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>355714</v>
+        <v>358513</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4876197073077109</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4496365376150506</v>
+        <v>0.4492422795106158</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5256147161969276</v>
+        <v>0.5297507203455937</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>333</v>
@@ -1625,19 +1625,19 @@
         <v>328063</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>300975</v>
+        <v>301812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>354387</v>
+        <v>353938</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4797355646118168</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4401238410015564</v>
+        <v>0.4413485958793795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5182294816536781</v>
+        <v>0.5175733760344351</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>641</v>
@@ -1646,19 +1646,19 @@
         <v>658063</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>617511</v>
+        <v>622153</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>692079</v>
+        <v>694351</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4836571136315513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4538524273919535</v>
+        <v>0.4572638456967163</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5086574200662739</v>
+        <v>0.5103278010143121</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>184654</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164261</v>
+        <v>161312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207839</v>
+        <v>207183</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2728508099469854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2427172672534632</v>
+        <v>0.2383605564820963</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3071096536028248</v>
+        <v>0.3061398885561458</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>167</v>
@@ -1696,19 +1696,19 @@
         <v>157787</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137925</v>
+        <v>138116</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>179466</v>
+        <v>181413</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2307361561293862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2016917224282216</v>
+        <v>0.2019711385578362</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2624383995246404</v>
+        <v>0.2652857444271426</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>347</v>
@@ -1717,19 +1717,19 @@
         <v>342441</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>311092</v>
+        <v>311609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>375169</v>
+        <v>374202</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2516838591029605</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2286432131859819</v>
+        <v>0.2290235744709859</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2757379400595899</v>
+        <v>0.2750274412029808</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>99727</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80756</v>
+        <v>81129</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119406</v>
+        <v>119930</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1473596605964237</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1193273013501197</v>
+        <v>0.1198783875698052</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1764386527474515</v>
+        <v>0.1772124759535267</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>136</v>
@@ -1767,19 +1767,19 @@
         <v>137103</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>115992</v>
+        <v>118281</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>158207</v>
+        <v>159526</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2004901013216592</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1696181061123188</v>
+        <v>0.1729652148832193</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2313507000267737</v>
+        <v>0.2332795885289307</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>233</v>
@@ -1788,19 +1788,19 @@
         <v>236830</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>209909</v>
+        <v>208626</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>265698</v>
+        <v>264603</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1740631788545383</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1542767907391662</v>
+        <v>0.1533336966156492</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1952799866961399</v>
+        <v>0.1944756783331242</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>53420</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39613</v>
+        <v>39619</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70262</v>
+        <v>68374</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07893514713980429</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05853307306638379</v>
+        <v>0.05854197740058586</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1038207252752055</v>
+        <v>0.1010319865409284</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -1838,19 +1838,19 @@
         <v>51730</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38352</v>
+        <v>40386</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67071</v>
+        <v>67371</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07564687952506159</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05608263438934865</v>
+        <v>0.05905716403303347</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09807927368946065</v>
+        <v>0.09851780651685943</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>99</v>
@@ -1859,19 +1859,19 @@
         <v>105150</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>87587</v>
+        <v>86287</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128050</v>
+        <v>126242</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07728245401154756</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06437361306589758</v>
+        <v>0.06341860948869359</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09411294385952776</v>
+        <v>0.09278390597510087</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>8957</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4289</v>
+        <v>3622</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18311</v>
+        <v>18379</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01323467500907571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006338275714666731</v>
+        <v>0.005352280194602176</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02705741813013808</v>
+        <v>0.02715773752104704</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1909,19 +1909,19 @@
         <v>9158</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4750</v>
+        <v>3947</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17053</v>
+        <v>16947</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01339129841207615</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006945781104656283</v>
+        <v>0.005772174755004167</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02493639252938245</v>
+        <v>0.02478166063465882</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -1930,19 +1930,19 @@
         <v>18114</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10487</v>
+        <v>10550</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30136</v>
+        <v>29581</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01331339439940224</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007707283254520763</v>
+        <v>0.007753781302666131</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0221488509691899</v>
+        <v>0.02174132568309947</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>449846</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>420725</v>
+        <v>419129</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>480026</v>
+        <v>479406</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4778559471507461</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4469210328384333</v>
+        <v>0.4452259395373975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5099146327647596</v>
+        <v>0.5092564704567616</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>483</v>
@@ -2055,19 +2055,19 @@
         <v>499391</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>464453</v>
+        <v>466080</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>529895</v>
+        <v>531152</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4808256653441885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4471858674894018</v>
+        <v>0.4487531774350114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5101956425764633</v>
+        <v>0.5114055966159373</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>956</v>
@@ -2076,19 +2076,19 @@
         <v>949238</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>907017</v>
+        <v>908816</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>989429</v>
+        <v>994130</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.479413719765288</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4580901278935053</v>
+        <v>0.4589988630687969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4997124346339582</v>
+        <v>0.5020866255928695</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>236154</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>211646</v>
+        <v>211331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>265300</v>
+        <v>262431</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2508580245472229</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2248244090264193</v>
+        <v>0.2244895831268879</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2818185475315707</v>
+        <v>0.2787713746824017</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>236</v>
@@ -2126,19 +2126,19 @@
         <v>243744</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>215028</v>
+        <v>215717</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>271343</v>
+        <v>269204</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2346820676656328</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2070337067523166</v>
+        <v>0.2076977570183667</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2612549348525506</v>
+        <v>0.2591962498420898</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>484</v>
@@ -2147,19 +2147,19 @@
         <v>479898</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>443529</v>
+        <v>440786</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>516165</v>
+        <v>512394</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2423728885838864</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2240050285712238</v>
+        <v>0.2226193346568247</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2606897576206211</v>
+        <v>0.2587851975172904</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>174128</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>151996</v>
+        <v>149684</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>197263</v>
+        <v>198989</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1849699664514201</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1614601603123825</v>
+        <v>0.1590038420165673</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.209545858400726</v>
+        <v>0.2113790166945362</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>160</v>
@@ -2197,19 +2197,19 @@
         <v>169862</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>147382</v>
+        <v>146474</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>195700</v>
+        <v>196465</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1635469435697476</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1419029592392624</v>
+        <v>0.1410284244023228</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1884246482192403</v>
+        <v>0.1891607644518885</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>347</v>
@@ -2218,19 +2218,19 @@
         <v>343990</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>312515</v>
+        <v>313223</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>379834</v>
+        <v>378377</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1737324697625199</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.157835878007172</v>
+        <v>0.1581938037299533</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.191835738966547</v>
+        <v>0.1910998192492269</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>65547</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51618</v>
+        <v>50987</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81649</v>
+        <v>83367</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06962875830216475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05483236980859969</v>
+        <v>0.0541621499964803</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08673291612958545</v>
+        <v>0.08855779432335628</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>95</v>
@@ -2268,19 +2268,19 @@
         <v>100947</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82536</v>
+        <v>81325</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>120437</v>
+        <v>119751</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09719422606415935</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07946761829009302</v>
+        <v>0.07830181587417388</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1159598720558063</v>
+        <v>0.1152994851049409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>165</v>
@@ -2289,19 +2289,19 @@
         <v>166495</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>144038</v>
+        <v>145055</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>194147</v>
+        <v>196930</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0840882887995347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07274645422960785</v>
+        <v>0.07325998847357787</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09805396079611274</v>
+        <v>0.09945997742590104</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>15709</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8963</v>
+        <v>8736</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25940</v>
+        <v>25420</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01668730354844622</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009520853733563893</v>
+        <v>0.009280276232578034</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02755464149736044</v>
+        <v>0.02700227875131084</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2339,19 +2339,19 @@
         <v>24668</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16400</v>
+        <v>16080</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36629</v>
+        <v>35263</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02375109735627186</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01579030420824315</v>
+        <v>0.01548262990868527</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03526713381005649</v>
+        <v>0.03395201476986185</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -2360,19 +2360,19 @@
         <v>40377</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29333</v>
+        <v>28410</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56702</v>
+        <v>53807</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02039263308877096</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01481466750874457</v>
+        <v>0.01434833221753447</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0286375054398665</v>
+        <v>0.02717546583686397</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1524927</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1471037</v>
+        <v>1464484</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1583673</v>
+        <v>1581054</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4657750484148282</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4493150752248661</v>
+        <v>0.4473135439534709</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4837187609945345</v>
+        <v>0.4829185477554556</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1494</v>
@@ -2485,19 +2485,19 @@
         <v>1519979</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1461489</v>
+        <v>1466294</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1576382</v>
+        <v>1579350</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4498049173295888</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4324958546236565</v>
+        <v>0.4339179766730648</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4664961442172776</v>
+        <v>0.4673742610269554</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2975</v>
@@ -2506,19 +2506,19 @@
         <v>3044906</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2961196</v>
+        <v>2959773</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3120312</v>
+        <v>3120855</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4576636718189417</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4450816417922772</v>
+        <v>0.4448677470924067</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4689975510535883</v>
+        <v>0.4690791578697183</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>922789</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>867297</v>
+        <v>874303</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>973174</v>
+        <v>975901</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2818576422505941</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2649079824005197</v>
+        <v>0.2670480980927979</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2972473489946937</v>
+        <v>0.2980801215500618</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>863</v>
@@ -2556,19 +2556,19 @@
         <v>878940</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>830566</v>
+        <v>829196</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>936009</v>
+        <v>929937</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2601031496007316</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2457879501613461</v>
+        <v>0.2453826968432866</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2769914283334458</v>
+        <v>0.2751945500583327</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1778</v>
@@ -2577,19 +2577,19 @@
         <v>1801729</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1728619</v>
+        <v>1726605</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1871666</v>
+        <v>1871836</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2708083351664103</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2598196219264338</v>
+        <v>0.2595168565641914</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2813201664646138</v>
+        <v>0.2813456828891006</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>586249</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>540338</v>
+        <v>544086</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>628418</v>
+        <v>631864</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1790645214185139</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1650413188010867</v>
+        <v>0.1661860773143364</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1919446974838973</v>
+        <v>0.1929972330044979</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>605</v>
@@ -2627,19 +2627,19 @@
         <v>626614</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>582224</v>
+        <v>586107</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>671281</v>
+        <v>679908</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1854327686481291</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1722965083959854</v>
+        <v>0.1734456115982318</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.198651046172359</v>
+        <v>0.2012039542745521</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1193</v>
@@ -2648,19 +2648,19 @@
         <v>1212863</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1146651</v>
+        <v>1158385</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1273964</v>
+        <v>1278506</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1822990128111902</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1723470815135109</v>
+        <v>0.1741106612822693</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1914828307086303</v>
+        <v>0.1921653967294089</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>203741</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>177278</v>
+        <v>177765</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>230851</v>
+        <v>232343</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06223089625243652</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05414804050808562</v>
+        <v>0.05429669954517612</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07051150668230205</v>
+        <v>0.07096696301980583</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>275</v>
@@ -2698,19 +2698,19 @@
         <v>289581</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>259899</v>
+        <v>257460</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>326922</v>
+        <v>326706</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08569531627337373</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07691149816431155</v>
+        <v>0.07618956178649558</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09674545686951418</v>
+        <v>0.09668168863365467</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>471</v>
@@ -2719,19 +2719,19 @@
         <v>493323</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>453813</v>
+        <v>451415</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>540859</v>
+        <v>534486</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07414869118962367</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06821028004803661</v>
+        <v>0.06784976656761982</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08129371469384726</v>
+        <v>0.08033579369070408</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>36249</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25454</v>
+        <v>24063</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49318</v>
+        <v>50579</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01107189166362729</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007774759917442245</v>
+        <v>0.007349956403170296</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01506381655315911</v>
+        <v>0.01544881012142765</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>60</v>
@@ -2769,19 +2769,19 @@
         <v>64083</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>48907</v>
+        <v>48815</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>83538</v>
+        <v>82104</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01896384814817679</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01447296652813778</v>
+        <v>0.0144456639900822</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02472133098237832</v>
+        <v>0.02429677523335943</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>92</v>
@@ -2790,19 +2790,19 @@
         <v>100331</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>79914</v>
+        <v>80930</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>121723</v>
+        <v>123849</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01508028901383414</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01201146336429252</v>
+        <v>0.01216421266029449</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01829556883725405</v>
+        <v>0.01861510781028999</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>360610</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>333519</v>
+        <v>333751</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>387133</v>
+        <v>386515</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5140692565299035</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4754491618404609</v>
+        <v>0.4757791702487801</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5518785045235288</v>
+        <v>0.5509978740728686</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>298</v>
@@ -3155,19 +3155,19 @@
         <v>315163</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>287799</v>
+        <v>289860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>339802</v>
+        <v>342126</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4533826385974727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4140176911467201</v>
+        <v>0.4169830819373046</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4888272033953798</v>
+        <v>0.4921701154381776</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>644</v>
@@ -3176,19 +3176,19 @@
         <v>675773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>637246</v>
+        <v>635731</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>713256</v>
+        <v>714384</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4838637940808964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4562774080979975</v>
+        <v>0.4551929985923753</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5107019205369442</v>
+        <v>0.5115098351757441</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>187112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>164634</v>
+        <v>163539</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>211921</v>
+        <v>211887</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2667381275741131</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2346949409025124</v>
+        <v>0.2331331636113353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3021049031699892</v>
+        <v>0.3020567159821212</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>201</v>
@@ -3226,19 +3226,19 @@
         <v>219472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195667</v>
+        <v>196243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>244643</v>
+        <v>243505</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3157250749779502</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2814801631507164</v>
+        <v>0.2823080894494537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3519349437749392</v>
+        <v>0.3502973482640707</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -3247,19 +3247,19 @@
         <v>406584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>374249</v>
+        <v>371278</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>444340</v>
+        <v>439920</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2911203299559557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2679677374627758</v>
+        <v>0.265840311257278</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3181538478346783</v>
+        <v>0.3149892073643311</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>117477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>98654</v>
+        <v>100210</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>140557</v>
+        <v>139165</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1674702867798855</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1406368640309286</v>
+        <v>0.1428547427048956</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2003721903909814</v>
+        <v>0.1983868158694677</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>94</v>
@@ -3297,19 +3297,19 @@
         <v>100454</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>83902</v>
+        <v>83772</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120562</v>
+        <v>121304</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1445094724713732</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1206981317460282</v>
+        <v>0.120510814464288</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.173435809307901</v>
+        <v>0.1745040185938508</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -3318,19 +3318,19 @@
         <v>217931</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>193401</v>
+        <v>191859</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>244571</v>
+        <v>245819</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1560420339290413</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1384777558371814</v>
+        <v>0.1373736339492565</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1751166015767055</v>
+        <v>0.1760101196048298</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>27911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18875</v>
+        <v>18705</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39972</v>
+        <v>39486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03978907192158485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02690723798080063</v>
+        <v>0.0266649638401008</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05698178934564501</v>
+        <v>0.05628886002571832</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -3368,19 +3368,19 @@
         <v>40606</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29004</v>
+        <v>28760</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52782</v>
+        <v>53596</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05841418451884099</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04172419391624183</v>
+        <v>0.04137273667246771</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07593057823642448</v>
+        <v>0.07710185544106089</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -3389,19 +3389,19 @@
         <v>68517</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52057</v>
+        <v>53484</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85921</v>
+        <v>87989</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04905932223923038</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03727325338951697</v>
+        <v>0.03829525352934324</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06152083316637041</v>
+        <v>0.0630014361803139</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>8371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3844</v>
+        <v>3730</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15732</v>
+        <v>16975</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01193325719451311</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005479298274734083</v>
+        <v>0.00531788730369702</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02242649618413003</v>
+        <v>0.02419928107410384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -3439,19 +3439,19 @@
         <v>19442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11673</v>
+        <v>11517</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30248</v>
+        <v>29894</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02796862943436297</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01679306943276134</v>
+        <v>0.01656758638491053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04351441519773818</v>
+        <v>0.04300405761528522</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -3460,19 +3460,19 @@
         <v>27813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19143</v>
+        <v>18662</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40555</v>
+        <v>39863</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01991451979487624</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0137067879085892</v>
+        <v>0.01336209836812344</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02903826826059471</v>
+        <v>0.02854214358850351</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>477698</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>444389</v>
+        <v>444520</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>512292</v>
+        <v>509973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4706826321063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4378624771503506</v>
+        <v>0.4379919807507792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5047682655525512</v>
+        <v>0.5024831829610485</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>393</v>
@@ -3585,19 +3585,19 @@
         <v>428833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>396038</v>
+        <v>396815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>462484</v>
+        <v>462750</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4158967875853281</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3840914175115341</v>
+        <v>0.3848450458592508</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4485324936386542</v>
+        <v>0.4487903768430634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>838</v>
@@ -3606,19 +3606,19 @@
         <v>906531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>854555</v>
+        <v>860398</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>949658</v>
+        <v>956997</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4430728282242452</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4176695242143567</v>
+        <v>0.4205251875867982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4641517942595398</v>
+        <v>0.4677387120427804</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>279775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>252289</v>
+        <v>251636</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310742</v>
+        <v>312581</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2756658032820539</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2485838116465429</v>
+        <v>0.2479400010943035</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3061788203339003</v>
+        <v>0.3079906282859118</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>294</v>
@@ -3656,19 +3656,19 @@
         <v>321743</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>292159</v>
+        <v>290155</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>353162</v>
+        <v>353073</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3120376385733103</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2833462503830357</v>
+        <v>0.2814022624931417</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3425088741204654</v>
+        <v>0.3424226323016654</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>552</v>
@@ -3677,19 +3677,19 @@
         <v>601518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>560216</v>
+        <v>557634</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>645500</v>
+        <v>644125</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2939957067087973</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.273809326434423</v>
+        <v>0.2725472214676317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3154926552823339</v>
+        <v>0.3148205979956056</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>198909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>173439</v>
+        <v>172565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>230382</v>
+        <v>228170</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1959874903371043</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1708920345568228</v>
+        <v>0.1700307433691904</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.226998213524444</v>
+        <v>0.2248187904087431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>188</v>
@@ -3727,19 +3727,19 @@
         <v>209768</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>182013</v>
+        <v>183789</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>239273</v>
+        <v>235683</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2034398388197256</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1765223920101598</v>
+        <v>0.1782443979569916</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2320550456097889</v>
+        <v>0.2285736242575125</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>366</v>
@@ -3748,19 +3748,19 @@
         <v>408676</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>370407</v>
+        <v>374184</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>447246</v>
+        <v>452732</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1997431663126228</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1810390932897347</v>
+        <v>0.1828848330494414</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2185946176753923</v>
+        <v>0.2212756893075215</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>48917</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35921</v>
+        <v>34335</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66050</v>
+        <v>64790</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04819905300084939</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03539303264738128</v>
+        <v>0.03383035790332036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06507954081275674</v>
+        <v>0.06383841790604454</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -3798,19 +3798,19 @@
         <v>55472</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41676</v>
+        <v>42513</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72209</v>
+        <v>71962</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05379865507134311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04041926018217998</v>
+        <v>0.04123015485022923</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07003069041283126</v>
+        <v>0.06979146076124736</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -3819,19 +3819,19 @@
         <v>104389</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84587</v>
+        <v>84715</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127176</v>
+        <v>127342</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05102102127268461</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04134236628342601</v>
+        <v>0.04140481617335946</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0621579782948231</v>
+        <v>0.06223910629494588</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>9606</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4494</v>
+        <v>5049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17747</v>
+        <v>18018</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009465021273692437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004428450988434993</v>
+        <v>0.004974361440318846</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01748634870761665</v>
+        <v>0.01775387718806384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -3869,19 +3869,19 @@
         <v>15288</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8946</v>
+        <v>8621</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26493</v>
+        <v>24295</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01482707995029286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008676589901314502</v>
+        <v>0.008360872626061625</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.025693805225994</v>
+        <v>0.02356169997213685</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -3890,19 +3890,19 @@
         <v>24894</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15859</v>
+        <v>16006</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35727</v>
+        <v>36649</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01216727748165026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007751356646082219</v>
+        <v>0.007822909943660401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01746173144234565</v>
+        <v>0.01791234315097435</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>358532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>326940</v>
+        <v>331440</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>386336</v>
+        <v>388930</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4753700475110194</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4334829578178588</v>
+        <v>0.4394487177514379</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5122347185961991</v>
+        <v>0.5156736861918986</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>325</v>
@@ -4015,19 +4015,19 @@
         <v>357354</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>330963</v>
+        <v>328298</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>385743</v>
+        <v>387548</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4604623033623504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4264575210855651</v>
+        <v>0.4230225976570608</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4970430063687086</v>
+        <v>0.4993683654212793</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>654</v>
@@ -4036,19 +4036,19 @@
         <v>715886</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>674612</v>
+        <v>678648</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>753592</v>
+        <v>760769</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4678097005029178</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4408383902733994</v>
+        <v>0.4434755446918412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4924494240787871</v>
+        <v>0.4971394834533338</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>185381</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161155</v>
+        <v>163400</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>212571</v>
+        <v>208850</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2457929663719862</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2136719972539103</v>
+        <v>0.2166489684701995</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2818435158011358</v>
+        <v>0.2769092690215318</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -4086,19 +4086,19 @@
         <v>204454</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>179520</v>
+        <v>179309</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>228249</v>
+        <v>230178</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2634464426211129</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2313173915726163</v>
+        <v>0.2310450381772204</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2941068705718584</v>
+        <v>0.2965917729032368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>357</v>
@@ -4107,19 +4107,19 @@
         <v>389836</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>355694</v>
+        <v>355200</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426892</v>
+        <v>426613</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2547457901534834</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2324351029951463</v>
+        <v>0.23211216157369</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.278960668072966</v>
+        <v>0.2787783835114814</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>155694</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>131716</v>
+        <v>132116</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>181072</v>
+        <v>180693</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2064307280249709</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.174639942926585</v>
+        <v>0.1751700174907626</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2400788744860445</v>
+        <v>0.239577598838362</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>131</v>
@@ -4157,19 +4157,19 @@
         <v>147622</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>124835</v>
+        <v>126234</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>172308</v>
+        <v>171830</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.190216386338536</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.16085412555871</v>
+        <v>0.1626561249314864</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2220245661017147</v>
+        <v>0.2214088346561216</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>270</v>
@@ -4178,19 +4178,19 @@
         <v>303316</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>274777</v>
+        <v>271803</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>343147</v>
+        <v>338133</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1982077501931223</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1795584570644841</v>
+        <v>0.1776149100953893</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2242361624588335</v>
+        <v>0.220959483612705</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>40197</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26964</v>
+        <v>28997</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52887</v>
+        <v>55194</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05329616986893069</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03575136356490738</v>
+        <v>0.03844670985838133</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07012151514569821</v>
+        <v>0.07318085310367203</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -4228,19 +4228,19 @@
         <v>46356</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34074</v>
+        <v>34427</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61249</v>
+        <v>61165</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05973086702903039</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04390568155814609</v>
+        <v>0.04436052086202831</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07892104374051928</v>
+        <v>0.07881278562750434</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -4249,19 +4249,19 @@
         <v>86553</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67956</v>
+        <v>69142</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105954</v>
+        <v>106558</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05655947670712481</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0444070029578675</v>
+        <v>0.04518242453632385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06923765154038972</v>
+        <v>0.06963217470861613</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>14413</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7267</v>
+        <v>7161</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25042</v>
+        <v>25630</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01911008822309283</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009635322452862366</v>
+        <v>0.009494880947882237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0332025085732312</v>
+        <v>0.03398254991116544</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -4299,19 +4299,19 @@
         <v>20290</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11946</v>
+        <v>12470</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30129</v>
+        <v>30790</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02614400064897023</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01539300656376888</v>
+        <v>0.01606842272623581</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03882259997763582</v>
+        <v>0.03967380573867611</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -4320,19 +4320,19 @@
         <v>34703</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23138</v>
+        <v>23505</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49981</v>
+        <v>49367</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02267728244335178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01512005986658116</v>
+        <v>0.01535966130390087</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03266132950416466</v>
+        <v>0.0322599028445083</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>418290</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>388364</v>
+        <v>386272</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>449568</v>
+        <v>449382</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4432222231985788</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4115123657266077</v>
+        <v>0.4092961569428479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4763648826083757</v>
+        <v>0.4761668398874929</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>410</v>
@@ -4445,19 +4445,19 @@
         <v>427664</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>398389</v>
+        <v>393292</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>462880</v>
+        <v>460391</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4096056543013629</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3815673157648601</v>
+        <v>0.3766849313259486</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4433350359214366</v>
+        <v>0.4409508411249039</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>815</v>
@@ -4466,19 +4466,19 @@
         <v>845954</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>803714</v>
+        <v>801675</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>890119</v>
+        <v>891164</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4255655113718386</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4043161059388821</v>
+        <v>0.4032904473801874</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.447783390475945</v>
+        <v>0.4483086912947491</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>325985</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>296533</v>
+        <v>294934</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>356048</v>
+        <v>359141</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3454152326314606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3142078781983417</v>
+        <v>0.3125134374173161</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3772698325845434</v>
+        <v>0.3805472991128322</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>337</v>
@@ -4516,19 +4516,19 @@
         <v>354221</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>323463</v>
+        <v>320817</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>386144</v>
+        <v>385046</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3392639525287949</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3098050564561893</v>
+        <v>0.3072708155261513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3698391178583876</v>
+        <v>0.3687874572070023</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>650</v>
@@ -4537,19 +4537,19 @@
         <v>680206</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>632947</v>
+        <v>639074</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>722802</v>
+        <v>722426</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3421843443016488</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3184100217596512</v>
+        <v>0.3214924433535072</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3636126639783159</v>
+        <v>0.3634232830738751</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>143767</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>122601</v>
+        <v>124212</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168044</v>
+        <v>168571</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1523364139693929</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1299081990337131</v>
+        <v>0.1316151752036795</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1780602980045409</v>
+        <v>0.1786184844266667</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>177</v>
@@ -4587,19 +4587,19 @@
         <v>183855</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>158590</v>
+        <v>159937</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>208684</v>
+        <v>211333</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1760914800874091</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1518935282481217</v>
+        <v>0.1531832523127827</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1998726883902228</v>
+        <v>0.2024093274560089</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>313</v>
@@ -4608,19 +4608,19 @@
         <v>327622</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>295004</v>
+        <v>295904</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>364275</v>
+        <v>357656</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.164813486158212</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.14840485094248</v>
+        <v>0.1488573296525386</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1832521292081381</v>
+        <v>0.17992225391648</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>41041</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30046</v>
+        <v>29594</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54854</v>
+        <v>54888</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04348730337170461</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03183730643859163</v>
+        <v>0.0313583537551485</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05812321689474811</v>
+        <v>0.05815952377146859</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -4658,19 +4658,19 @@
         <v>43593</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30284</v>
+        <v>32048</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57593</v>
+        <v>59316</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04175193414516035</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0290051416275615</v>
+        <v>0.03069465956779303</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05516118099619031</v>
+        <v>0.05681179613806284</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -4679,19 +4679,19 @@
         <v>84634</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>67523</v>
+        <v>67249</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>104967</v>
+        <v>104026</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04257582086913955</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03396825829961651</v>
+        <v>0.03383020507840163</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0528046723039917</v>
+        <v>0.05233118470714695</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>14665</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7674</v>
+        <v>7993</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25576</v>
+        <v>25564</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01553882682886308</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008131638300810953</v>
+        <v>0.008469778069166593</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02710081131971791</v>
+        <v>0.02708771552041267</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -4729,19 +4729,19 @@
         <v>34755</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24720</v>
+        <v>24111</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46873</v>
+        <v>47328</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03328697893727271</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02367633749908926</v>
+        <v>0.02309303070731789</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04489331666324822</v>
+        <v>0.04532977672260346</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>46</v>
@@ -4750,19 +4750,19 @@
         <v>49419</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36401</v>
+        <v>37162</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>65537</v>
+        <v>65404</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02486083729916108</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01831175226799651</v>
+        <v>0.01869463409750016</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03296891257048916</v>
+        <v>0.03290220821437231</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>1615130</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1559936</v>
+        <v>1552944</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1674573</v>
+        <v>1673227</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4730416605227976</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4568764289682807</v>
+        <v>0.4548285510154877</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4904513382063146</v>
+        <v>0.4900570308696577</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1426</v>
@@ -4875,19 +4875,19 @@
         <v>1529014</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1467719</v>
+        <v>1461253</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1589900</v>
+        <v>1587888</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4311447819739765</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4138611499127766</v>
+        <v>0.4120378803901674</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4483133125817697</v>
+        <v>0.4477458688404528</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2951</v>
@@ -4896,19 +4896,19 @@
         <v>3144143</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3062402</v>
+        <v>3062176</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3235366</v>
+        <v>3235825</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.451695805792123</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4399526417795221</v>
+        <v>0.439920210646501</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4648010434633345</v>
+        <v>0.4648669529314295</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>978252</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>927527</v>
+        <v>920856</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1036899</v>
+        <v>1031645</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2865119842695306</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2716554007756907</v>
+        <v>0.2697017314922524</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3036885173765876</v>
+        <v>0.3021495286662423</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1019</v>
@@ -4946,19 +4946,19 @@
         <v>1099891</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1039561</v>
+        <v>1046054</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1158185</v>
+        <v>1156929</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3101426037026891</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2931310999053762</v>
+        <v>0.2949618225154916</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3265800177647599</v>
+        <v>0.3262260606355442</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1934</v>
@@ -4967,19 +4967,19 @@
         <v>2078143</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1996352</v>
+        <v>2004939</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2157274</v>
+        <v>2158537</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2985514437015329</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2868010807831091</v>
+        <v>0.2880347127603819</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3099195620650763</v>
+        <v>0.3101010015779439</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>615847</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>574657</v>
+        <v>572100</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>662712</v>
+        <v>665338</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1803700463461413</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1683063046884981</v>
+        <v>0.1675573446017784</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1940959680034073</v>
+        <v>0.194865054375689</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>590</v>
@@ -5017,19 +5017,19 @@
         <v>641699</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>594829</v>
+        <v>596680</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>690286</v>
+        <v>687738</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1809434877370684</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.167727400746915</v>
+        <v>0.1682492581333852</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1946439099704012</v>
+        <v>0.1939254131558149</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1158</v>
@@ -5038,19 +5038,19 @@
         <v>1257545</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1184539</v>
+        <v>1193507</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1319887</v>
+        <v>1321140</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.180662206455707</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1701739389037513</v>
+        <v>0.1714623040749789</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.189618421644775</v>
+        <v>0.1897983498549051</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>158067</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>133819</v>
+        <v>134242</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>183486</v>
+        <v>186038</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04629479086223087</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03919321784036443</v>
+        <v>0.03931688332497974</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05373972976868913</v>
+        <v>0.05448716142736552</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>170</v>
@@ -5088,19 +5088,19 @@
         <v>186026</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>158530</v>
+        <v>159174</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>213318</v>
+        <v>218152</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05245488497209516</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04470153570263163</v>
+        <v>0.04488325992563768</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06015041496974447</v>
+        <v>0.06151352394419469</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>317</v>
@@ -5109,19 +5109,19 @@
         <v>344093</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>309360</v>
+        <v>308346</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>383616</v>
+        <v>382812</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04943326987429433</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04444348965866966</v>
+        <v>0.04429778889321304</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05511127221467684</v>
+        <v>0.05499574069479476</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>47055</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34603</v>
+        <v>32897</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64362</v>
+        <v>63377</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01378151799929969</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01013468992253994</v>
+        <v>0.009634858158070369</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01885033326023994</v>
+        <v>0.01856192171610579</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>84</v>
@@ -5159,19 +5159,19 @@
         <v>89775</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>71506</v>
+        <v>71367</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>111920</v>
+        <v>109890</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02531424161417087</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02016306778827063</v>
+        <v>0.02012381063205828</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0315586235111329</v>
+        <v>0.03098626634444195</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>126</v>
@@ -5180,19 +5180,19 @@
         <v>136829</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>114214</v>
+        <v>110658</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>164101</v>
+        <v>161694</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01965727417634278</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01640833070516153</v>
+        <v>0.01589744194807875</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02357514949559602</v>
+        <v>0.02322934797396007</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>300938</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>275763</v>
+        <v>275295</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>327305</v>
+        <v>329656</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4472950368281779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4098753654362396</v>
+        <v>0.4091805426386961</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4864854783674479</v>
+        <v>0.4899785779604394</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>251</v>
@@ -5545,19 +5545,19 @@
         <v>253321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>229722</v>
+        <v>228252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>281196</v>
+        <v>277771</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3776067556174398</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3424289797769409</v>
+        <v>0.3402383561270453</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4191587413193718</v>
+        <v>0.4140525521275175</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>542</v>
@@ -5566,19 +5566,19 @@
         <v>554259</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>517026</v>
+        <v>520519</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>591536</v>
+        <v>589824</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4125011208239597</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3847907100688584</v>
+        <v>0.387390257791443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4402438046323019</v>
+        <v>0.4389697059723294</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>173224</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150149</v>
+        <v>150287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195081</v>
+        <v>195849</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2574690598019524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2231719830577654</v>
+        <v>0.2233765259882519</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2899563417125128</v>
+        <v>0.2910969329921676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>205</v>
@@ -5616,19 +5616,19 @@
         <v>208647</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183314</v>
+        <v>186170</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231612</v>
+        <v>234022</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3110145229318348</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2732531337265837</v>
+        <v>0.2775101189540926</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3452465096234935</v>
+        <v>0.3488399228602638</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -5637,19 +5637,19 @@
         <v>381871</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>350152</v>
+        <v>350052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>415677</v>
+        <v>414375</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2842032009542387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2605966216337208</v>
+        <v>0.2605224110003783</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3093629995602215</v>
+        <v>0.3083942086258182</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>135231</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114799</v>
+        <v>113998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157339</v>
+        <v>157944</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2009982230569868</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1706302001894431</v>
+        <v>0.1694394178502846</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.233858852951474</v>
+        <v>0.2347571083277541</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -5687,19 +5687,19 @@
         <v>135545</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116584</v>
+        <v>117638</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>157361</v>
+        <v>159362</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2020466155800703</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1737832915533099</v>
+        <v>0.1753540656588876</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2345670323611428</v>
+        <v>0.2375490069063015</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>264</v>
@@ -5708,19 +5708,19 @@
         <v>270776</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>239716</v>
+        <v>240851</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>298779</v>
+        <v>301933</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2015216637381726</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.178406181720163</v>
+        <v>0.1792509157571988</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2223629033628387</v>
+        <v>0.224710166628478</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>52570</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40053</v>
+        <v>40030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66274</v>
+        <v>68852</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07813661942628612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05953262147987117</v>
+        <v>0.05949779704754704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09850487324923694</v>
+        <v>0.1023367757158417</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -5758,19 +5758,19 @@
         <v>54871</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42974</v>
+        <v>42178</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70563</v>
+        <v>70234</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0817916541246235</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06405774867161293</v>
+        <v>0.0628713448550815</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1051828788343702</v>
+        <v>0.1046933477695495</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -5779,19 +5779,19 @@
         <v>107441</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89187</v>
+        <v>89065</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126757</v>
+        <v>127880</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07996150257847467</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06637660394518984</v>
+        <v>0.06628588234110515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09433759110531124</v>
+        <v>0.09517321458337161</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>10833</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5839</v>
+        <v>5396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18913</v>
+        <v>18015</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01610106088659674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008678331321767301</v>
+        <v>0.00802056078790838</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02811037895693272</v>
+        <v>0.02677646292207402</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -5829,19 +5829,19 @@
         <v>18476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11305</v>
+        <v>10951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29785</v>
+        <v>29877</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02754045174603154</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01685148812978979</v>
+        <v>0.01632316302402982</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04439837426399454</v>
+        <v>0.04453596640181982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -5850,19 +5850,19 @@
         <v>29308</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19002</v>
+        <v>19889</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40980</v>
+        <v>42392</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02181251190515431</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01414230964483089</v>
+        <v>0.01480216533946977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03049908412769475</v>
+        <v>0.0315499392453117</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>447008</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>417136</v>
+        <v>412549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>481792</v>
+        <v>478006</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4376471870242507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4084007075317336</v>
+        <v>0.4039093489698605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4717018575971132</v>
+        <v>0.4679951481695545</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>409</v>
@@ -5975,19 +5975,19 @@
         <v>430316</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>398497</v>
+        <v>397141</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>463692</v>
+        <v>464665</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4129949048262643</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3824564979111587</v>
+        <v>0.3811554819277671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4450278684401197</v>
+        <v>0.4459612048145276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>823</v>
@@ -5996,19 +5996,19 @@
         <v>877324</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>830846</v>
+        <v>832872</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>922307</v>
+        <v>922771</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4251982850736872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4026724402491793</v>
+        <v>0.4036545247180833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4469990311204651</v>
+        <v>0.4472242132925772</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>282978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>253109</v>
+        <v>255270</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314927</v>
+        <v>314227</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2770518484282322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2478088512236196</v>
+        <v>0.2499238985548231</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3083319858340155</v>
+        <v>0.3076463241595186</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -6046,19 +6046,19 @@
         <v>286753</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256587</v>
+        <v>256359</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>314448</v>
+        <v>315760</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2752110036015943</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2462586143697383</v>
+        <v>0.2460403374834743</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3017913671202824</v>
+        <v>0.303050070099088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>529</v>
@@ -6067,19 +6067,19 @@
         <v>569731</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>529991</v>
+        <v>528399</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>615014</v>
+        <v>612659</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2761222591687482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2568617976875462</v>
+        <v>0.2560905564269613</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.298068746911589</v>
+        <v>0.2969272700796256</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>208631</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>183640</v>
+        <v>183521</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>235974</v>
+        <v>235185</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2042615812955683</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.179793797174174</v>
+        <v>0.1796772982394595</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2310317955017429</v>
+        <v>0.2302593632381404</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>207</v>
@@ -6117,19 +6117,19 @@
         <v>223116</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>197353</v>
+        <v>197126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>253038</v>
+        <v>248408</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2141350792060128</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1894091802441777</v>
+        <v>0.189191546576799</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2428530408908517</v>
+        <v>0.2384089427436443</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>403</v>
@@ -6138,19 +6138,19 @@
         <v>431747</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>394551</v>
+        <v>393560</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>471597</v>
+        <v>470377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2092474972610385</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1912203461840669</v>
+        <v>0.1907404181191087</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2285611441926586</v>
+        <v>0.227969732958443</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>58337</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45646</v>
+        <v>43570</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75734</v>
+        <v>74619</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05711576280460765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04468960073042828</v>
+        <v>0.0426575795262565</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07414821159600711</v>
+        <v>0.07305608241802664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -6188,19 +6188,19 @@
         <v>79797</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63413</v>
+        <v>63913</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99190</v>
+        <v>97704</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0765853943285601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06086088025105602</v>
+        <v>0.06134045729098155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09519701866007674</v>
+        <v>0.09377119080592489</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -6209,19 +6209,19 @@
         <v>138135</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116342</v>
+        <v>115696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164338</v>
+        <v>161267</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06694753139741892</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0563856242633537</v>
+        <v>0.05607244689846905</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07964701119916365</v>
+        <v>0.07815859072510649</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>24435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16542</v>
+        <v>15000</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36348</v>
+        <v>36485</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02392362044734111</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01619545384775009</v>
+        <v>0.0146857228170551</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0355865960000676</v>
+        <v>0.03572060568629375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -6259,19 +6259,19 @@
         <v>21957</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14189</v>
+        <v>13776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34589</v>
+        <v>33923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02107361803756858</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0136178198315694</v>
+        <v>0.01322138815907449</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03319712964884684</v>
+        <v>0.03255720065779336</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -6280,19 +6280,19 @@
         <v>46393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34177</v>
+        <v>34094</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>60356</v>
+        <v>61169</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02248442709910718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01656399894183262</v>
+        <v>0.01652369461615931</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02925177194806898</v>
+        <v>0.02964573424986373</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>258128</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>233006</v>
+        <v>232548</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>289634</v>
+        <v>285540</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3412117346321731</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3080046178099485</v>
+        <v>0.3073992531688004</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3828593496847291</v>
+        <v>0.3774470847845113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>262</v>
@@ -6405,19 +6405,19 @@
         <v>277735</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>252536</v>
+        <v>250203</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>306252</v>
+        <v>305814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3554937399194918</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3232398364352119</v>
+        <v>0.3202529058085217</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3919950636483362</v>
+        <v>0.3914335515002354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>503</v>
@@ -6426,19 +6426,19 @@
         <v>535863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>497497</v>
+        <v>498451</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>573380</v>
+        <v>571260</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3484677306080079</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3235183383449759</v>
+        <v>0.3241387125381598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3728647907133513</v>
+        <v>0.3714860185579767</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>229825</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204276</v>
+        <v>202742</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>258809</v>
+        <v>255380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3037990236783333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2700271306492477</v>
+        <v>0.267998620528436</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3421129574401214</v>
+        <v>0.3375798039713796</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>209</v>
@@ -6476,19 +6476,19 @@
         <v>222433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>197968</v>
+        <v>198456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>249008</v>
+        <v>247685</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2847084122472049</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2533940714752582</v>
+        <v>0.2540178836513719</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3187231193732311</v>
+        <v>0.3170299245017947</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>415</v>
@@ -6497,19 +6497,19 @@
         <v>452258</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414949</v>
+        <v>415607</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>492462</v>
+        <v>487531</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.294100007543429</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2698382319750285</v>
+        <v>0.2702657565774818</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3202440581934347</v>
+        <v>0.3170374395978032</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>200260</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>175131</v>
+        <v>176545</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>226345</v>
+        <v>224189</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2647180086646326</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.231500525505984</v>
+        <v>0.2333702898155461</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2991991870982093</v>
+        <v>0.2963491393557116</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>182</v>
@@ -6547,19 +6547,19 @@
         <v>194832</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>172768</v>
+        <v>170867</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>221010</v>
+        <v>219839</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2493793867658997</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2211389343077293</v>
+        <v>0.2187053460035817</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2828868439234165</v>
+        <v>0.281388536180903</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>365</v>
@@ -6568,19 +6568,19 @@
         <v>395092</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>360728</v>
+        <v>358568</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>430642</v>
+        <v>431026</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2569251969037463</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2345785370145849</v>
+        <v>0.2331741349272501</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2800432032115228</v>
+        <v>0.2802930154303842</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>42602</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31354</v>
+        <v>30523</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57213</v>
+        <v>58600</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05631476922478307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04144647194574073</v>
+        <v>0.04034697720269641</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07562856578353151</v>
+        <v>0.07746205031232765</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -6618,19 +6618,19 @@
         <v>66031</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52288</v>
+        <v>51213</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82906</v>
+        <v>82092</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08451849328683046</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06692690442642249</v>
+        <v>0.06555157624124226</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.106117609501847</v>
+        <v>0.1050760009002108</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -6639,19 +6639,19 @@
         <v>108634</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90565</v>
+        <v>90189</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>132882</v>
+        <v>128688</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07064371702873606</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05889378108632779</v>
+        <v>0.05864893515871435</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08641240183104171</v>
+        <v>0.08368486269997151</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>25688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16952</v>
+        <v>17055</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37098</v>
+        <v>37961</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03395646380007792</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02240870165923962</v>
+        <v>0.0225450373047457</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04903821920761772</v>
+        <v>0.05017985248669924</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -6689,19 +6689,19 @@
         <v>20235</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12938</v>
+        <v>12587</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31869</v>
+        <v>31766</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02589996778057315</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01655971508648951</v>
+        <v>0.01611063738522972</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04079127829445973</v>
+        <v>0.04065993662640251</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>42</v>
@@ -6710,19 +6710,19 @@
         <v>45923</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33606</v>
+        <v>33933</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61305</v>
+        <v>62413</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02986334791608077</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0218536712344022</v>
+        <v>0.02206658345859175</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03986634455012046</v>
+        <v>0.04058699478799124</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>403421</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>374530</v>
+        <v>372655</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>432423</v>
+        <v>433046</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.432319398572264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4013596959896463</v>
+        <v>0.3993501077247946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.463398936016863</v>
+        <v>0.4640665807562121</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>438</v>
@@ -6835,19 +6835,19 @@
         <v>469377</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>435842</v>
+        <v>436219</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>502883</v>
+        <v>503883</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4502839206785351</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4181131252604659</v>
+        <v>0.4184746830693413</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4824267811217374</v>
+        <v>0.4833863122827254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>842</v>
@@ -6856,19 +6856,19 @@
         <v>872798</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>830167</v>
+        <v>828177</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>916212</v>
+        <v>916510</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4417983811486582</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4202188721453616</v>
+        <v>0.419211551900231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4637737503406557</v>
+        <v>0.4639243703652635</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>286297</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>258013</v>
+        <v>257357</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>313216</v>
+        <v>315402</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3068061465015963</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2764956408762154</v>
+        <v>0.2757928259041347</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3356526101291478</v>
+        <v>0.337995443099649</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>289</v>
@@ -6906,19 +6906,19 @@
         <v>314416</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>285661</v>
+        <v>284680</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>348486</v>
+        <v>344656</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3016262586736911</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2740410160918221</v>
+        <v>0.2730992969102153</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3343100324189114</v>
+        <v>0.3306363428177274</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>570</v>
@@ -6927,19 +6927,19 @@
         <v>600714</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>560106</v>
+        <v>557432</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>642908</v>
+        <v>644304</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.304072977972095</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2835176364126289</v>
+        <v>0.2821641230641872</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3254309475686574</v>
+        <v>0.3261378272771156</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>174854</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>151986</v>
+        <v>151780</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>198895</v>
+        <v>199671</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1873798854732472</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1628733226193697</v>
+        <v>0.1626526965046178</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2131430185210239</v>
+        <v>0.2139739222415831</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>148</v>
@@ -6977,19 +6977,19 @@
         <v>166095</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>142249</v>
+        <v>141519</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>194026</v>
+        <v>191263</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1593387559945999</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1364627037996478</v>
+        <v>0.1357626761606071</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1861337260244502</v>
+        <v>0.1834824751554141</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>324</v>
@@ -6998,19 +6998,19 @@
         <v>340950</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>306301</v>
+        <v>307440</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>378364</v>
+        <v>373334</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1725839796218067</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1550454859564142</v>
+        <v>0.1556218657668078</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1915224065158842</v>
+        <v>0.1889763803595031</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>54989</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41546</v>
+        <v>41986</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69616</v>
+        <v>69856</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05892807969666835</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04452187940825178</v>
+        <v>0.0449937328213657</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07460333881450081</v>
+        <v>0.0748599128148401</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -7048,19 +7048,19 @@
         <v>69045</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54020</v>
+        <v>51781</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86598</v>
+        <v>86562</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06623623798410939</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05182225654850112</v>
+        <v>0.0496750022133122</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08307564703863068</v>
+        <v>0.08304128720014195</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>117</v>
@@ -7069,19 +7069,19 @@
         <v>124034</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101738</v>
+        <v>103058</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>145944</v>
+        <v>146892</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06278423042878283</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0514985849735712</v>
+        <v>0.05216675996172306</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07387492623600819</v>
+        <v>0.07435464714358979</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>13593</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7508</v>
+        <v>7017</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22808</v>
+        <v>21964</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01456648975622415</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008046296983974818</v>
+        <v>0.007519177274258072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02444209921369126</v>
+        <v>0.0235377034654736</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -7119,19 +7119,19 @@
         <v>23470</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14441</v>
+        <v>14662</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34532</v>
+        <v>35865</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0225148266690645</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01385330986796349</v>
+        <v>0.01406517245493308</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03312741615758035</v>
+        <v>0.03440587218185579</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>33</v>
@@ -7140,19 +7140,19 @@
         <v>37062</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26044</v>
+        <v>26212</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52748</v>
+        <v>52328</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01876043082865731</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01318323710852731</v>
+        <v>0.01326812539972559</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02670009015520704</v>
+        <v>0.02648750196962399</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1409495</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1350859</v>
+        <v>1352897</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1467817</v>
+        <v>1469522</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4165367692053585</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3992083609634314</v>
+        <v>0.3998106612008342</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4337721368073136</v>
+        <v>0.4342759855286547</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1360</v>
@@ -7265,19 +7265,19 @@
         <v>1430749</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1370501</v>
+        <v>1366430</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1489378</v>
+        <v>1490075</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.40457011696142</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3875337588616687</v>
+        <v>0.386382757584447</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4211484386475128</v>
+        <v>0.4213454501914117</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2710</v>
@@ -7286,19 +7286,19 @@
         <v>2840245</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2765522</v>
+        <v>2753982</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2926014</v>
+        <v>2919985</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4104214832119198</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3996238873410776</v>
+        <v>0.3979563625571494</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4228154017246321</v>
+        <v>0.4219440791798733</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>972325</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>914521</v>
+        <v>921608</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1026806</v>
+        <v>1032541</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2873432403164847</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2702611176537844</v>
+        <v>0.2723554507571873</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3034436994580698</v>
+        <v>0.3051384510869133</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>969</v>
@@ -7336,19 +7336,19 @@
         <v>1032249</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>977704</v>
+        <v>976415</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1090453</v>
+        <v>1088268</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2918870946255891</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2764633934543624</v>
+        <v>0.2760987896753549</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3083451600381082</v>
+        <v>0.3077272781732345</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1889</v>
@@ -7357,19 +7357,19 @@
         <v>2004574</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1931964</v>
+        <v>1931871</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2074961</v>
+        <v>2086804</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.289665273918386</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2791729529874453</v>
+        <v>0.2791594545169097</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2998363873428936</v>
+        <v>0.3015477059761553</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>718976</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>673990</v>
+        <v>672720</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>768269</v>
+        <v>766396</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2124731558728137</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.199178673782652</v>
+        <v>0.1988034596057893</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2270404498185016</v>
+        <v>0.2264868266473004</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>672</v>
@@ -7407,19 +7407,19 @@
         <v>719588</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>670853</v>
+        <v>675431</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>770767</v>
+        <v>773193</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2034763304886069</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1896958047790631</v>
+        <v>0.1909901364338213</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2179482294559513</v>
+        <v>0.218634187604626</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1356</v>
@@ -7428,19 +7428,19 @@
         <v>1438564</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1364847</v>
+        <v>1374043</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1506927</v>
+        <v>1512269</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.207875532482753</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1972232954119653</v>
+        <v>0.1985521776782071</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2177541751292771</v>
+        <v>0.2185260676815186</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>208499</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>181370</v>
+        <v>181807</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>237807</v>
+        <v>237988</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06161595926758534</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05359866957114437</v>
+        <v>0.05372800849565264</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07027707969440009</v>
+        <v>0.07033065905911529</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>254</v>
@@ -7478,19 +7478,19 @@
         <v>269744</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>237377</v>
+        <v>240214</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>303678</v>
+        <v>304181</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07627506661080791</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06712260215568357</v>
+        <v>0.06792486825472108</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08587030687266696</v>
+        <v>0.08601259553295229</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>451</v>
@@ -7499,19 +7499,19 @@
         <v>478243</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>439287</v>
+        <v>434476</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>522513</v>
+        <v>522986</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06910716332239787</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06347797862057773</v>
+        <v>0.06278269137526354</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07550422283364903</v>
+        <v>0.07557258073790683</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>74549</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>58269</v>
+        <v>56699</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92332</v>
+        <v>93647</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02203087533775777</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01721963751195075</v>
+        <v>0.01675592466023145</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02728599548129943</v>
+        <v>0.02767482622672363</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>76</v>
@@ -7549,19 +7549,19 @@
         <v>84137</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>67115</v>
+        <v>67767</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>106160</v>
+        <v>105307</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02379139131357602</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01897802586900774</v>
+        <v>0.0191622720064242</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03001859696686457</v>
+        <v>0.02977743601127935</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>146</v>
@@ -7570,19 +7570,19 @@
         <v>158687</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>134562</v>
+        <v>135611</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>185019</v>
+        <v>187141</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02293054706454333</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01944451381251144</v>
+        <v>0.01959608416532125</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02673570614540351</v>
+        <v>0.02704221664110736</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>387556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>360389</v>
+        <v>361488</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>414120</v>
+        <v>414373</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5634524058245607</v>
+        <v>0.5634524058245606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5239560661269607</v>
+        <v>0.525553861131324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6020738632451383</v>
+        <v>0.6024412096392187</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>579</v>
@@ -7935,19 +7935,19 @@
         <v>377536</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>355000</v>
+        <v>355270</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>398854</v>
+        <v>400390</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5177657759606971</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4868593697834989</v>
+        <v>0.487229789566318</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5470022372080225</v>
+        <v>0.5491085698371949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>953</v>
@@ -7956,19 +7956,19 @@
         <v>765092</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>728861</v>
+        <v>729664</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>798223</v>
+        <v>801604</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5399426308681753</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5143735824739096</v>
+        <v>0.5149407227985631</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5633244375444066</v>
+        <v>0.5657101863648987</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>182068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>160413</v>
+        <v>160787</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>206900</v>
+        <v>205595</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2647025265174493</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2332179367553723</v>
+        <v>0.2337627976992422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3008034308756701</v>
+        <v>0.2989062584736784</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>397</v>
@@ -8006,19 +8006,19 @@
         <v>213560</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>193688</v>
+        <v>193692</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>232413</v>
+        <v>233085</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2928826895010525</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2656299952450444</v>
+        <v>0.2656351632517974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3187386091882651</v>
+        <v>0.319660792893655</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>615</v>
@@ -8027,19 +8027,19 @@
         <v>395628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>365189</v>
+        <v>365998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>426868</v>
+        <v>426229</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2792036900296827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.257721981368359</v>
+        <v>0.2582932149187271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3012503531619958</v>
+        <v>0.3007992815058251</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>76790</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62376</v>
+        <v>61348</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96129</v>
+        <v>93449</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1116427634758948</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09068659745371505</v>
+        <v>0.08919110431124884</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1397586903685267</v>
+        <v>0.1358620943335055</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>178</v>
@@ -8077,19 +8077,19 @@
         <v>95789</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>83070</v>
+        <v>81981</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>112395</v>
+        <v>111450</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1313682585222287</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1139249897391455</v>
+        <v>0.11243216101614</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1541426005397878</v>
+        <v>0.1528469449285846</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>267</v>
@@ -8098,19 +8098,19 @@
         <v>172579</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>151814</v>
+        <v>151517</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>195398</v>
+        <v>195468</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1217932593830006</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1071389381673331</v>
+        <v>0.1069290102718183</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1378968566874461</v>
+        <v>0.1379460968320228</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>25791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17810</v>
+        <v>17404</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38753</v>
+        <v>37211</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03749599083796955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02589259060323753</v>
+        <v>0.02530288601749651</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05634114289709395</v>
+        <v>0.05409973793500552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -8148,19 +8148,19 @@
         <v>30369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22382</v>
+        <v>23062</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38640</v>
+        <v>40047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04164899586905216</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03069589151218967</v>
+        <v>0.03162779930409091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05299232858360153</v>
+        <v>0.05492188898327668</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -8169,19 +8169,19 @@
         <v>56160</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45199</v>
+        <v>43537</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70394</v>
+        <v>69838</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03963307588811274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03189764855415576</v>
+        <v>0.03072525775569536</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0496783592917831</v>
+        <v>0.04928618842169018</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>15618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9338</v>
+        <v>9473</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24551</v>
+        <v>24258</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02270631334412572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01357652322325776</v>
+        <v>0.01377263713551946</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03569324018051286</v>
+        <v>0.03526759561813837</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -8219,19 +8219,19 @@
         <v>11910</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7790</v>
+        <v>7207</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18379</v>
+        <v>17427</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01633428014696963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01068388826693737</v>
+        <v>0.009884332209954331</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02520588073914537</v>
+        <v>0.02389958376755681</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -8240,19 +8240,19 @@
         <v>27528</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19802</v>
+        <v>19610</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38551</v>
+        <v>38376</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0194273438310287</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01397444597688883</v>
+        <v>0.01383906713585861</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0272062870550073</v>
+        <v>0.02708316414702292</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>523664</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>488107</v>
+        <v>489049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>557132</v>
+        <v>560613</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5020203050869328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4679329909722488</v>
+        <v>0.4688364769708147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5341048481108547</v>
+        <v>0.5374426753698501</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>655</v>
@@ -8365,19 +8365,19 @@
         <v>494802</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>464223</v>
+        <v>464276</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>525492</v>
+        <v>524067</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4646392400566434</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4359242795479677</v>
+        <v>0.4359738824188552</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4934581936378085</v>
+        <v>0.4921201701467572</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1099</v>
@@ -8386,19 +8386,19 @@
         <v>1018466</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>976556</v>
+        <v>972775</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1065688</v>
+        <v>1066895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4831364577061669</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4632553411980751</v>
+        <v>0.4614618303507447</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5055376888089529</v>
+        <v>0.5061100645426305</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>340871</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309250</v>
+        <v>308553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>376827</v>
+        <v>372618</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3267825555921564</v>
+        <v>0.3267825555921565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2964679156423027</v>
+        <v>0.2958002308649127</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3612523055970185</v>
+        <v>0.3572170635918331</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>527</v>
@@ -8436,19 +8436,19 @@
         <v>354421</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330995</v>
+        <v>327610</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>384256</v>
+        <v>384048</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3328159862045405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3108175448562219</v>
+        <v>0.307639496026099</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3608318946883947</v>
+        <v>0.3606366953389545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>864</v>
@@ -8457,19 +8457,19 @@
         <v>695292</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>653161</v>
+        <v>657261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>738108</v>
+        <v>740113</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3298304725729697</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3098446192529593</v>
+        <v>0.3117892659897264</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3501414681260528</v>
+        <v>0.3510925311769015</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>111587</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>91784</v>
+        <v>93103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>132593</v>
+        <v>135259</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1069745711119726</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08799002543602259</v>
+        <v>0.08925506219718375</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1271123182316747</v>
+        <v>0.1296687489140403</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>198</v>
@@ -8507,19 +8507,19 @@
         <v>126705</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>110658</v>
+        <v>110082</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>145541</v>
+        <v>147697</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1189808116363913</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1039120313415193</v>
+        <v>0.1033710916602527</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1366685505099367</v>
+        <v>0.1386933367464045</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>311</v>
@@ -8528,19 +8528,19 @@
         <v>238291</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>212916</v>
+        <v>213156</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>265286</v>
+        <v>265870</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1130397812256004</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1010025609726044</v>
+        <v>0.1011164840108388</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1258457030859828</v>
+        <v>0.126122688801956</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>49386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35356</v>
+        <v>36403</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66941</v>
+        <v>66596</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0473447771415105</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0338949697260426</v>
+        <v>0.03489886186626952</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06417440238754206</v>
+        <v>0.06384326992145146</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -8578,19 +8578,19 @@
         <v>65975</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53192</v>
+        <v>52926</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84401</v>
+        <v>83052</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06195300666654837</v>
+        <v>0.06195300666654836</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04994912960578063</v>
+        <v>0.04969941757303176</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0792556937755616</v>
+        <v>0.07798905731773942</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>136</v>
@@ -8599,19 +8599,19 @@
         <v>115361</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94966</v>
+        <v>96034</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138429</v>
+        <v>136778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0547244378502273</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04504970684156035</v>
+        <v>0.04555633470688107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06566759644972407</v>
+        <v>0.06488428405772509</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>17605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10337</v>
+        <v>10195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27096</v>
+        <v>28090</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01687779106742761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009910221467673355</v>
+        <v>0.009773803831555494</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02597593274056994</v>
+        <v>0.02692911472978169</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -8649,19 +8649,19 @@
         <v>23014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16169</v>
+        <v>16490</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32530</v>
+        <v>31477</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02161095543587637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01518300983604668</v>
+        <v>0.01548452480307629</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03054723446015483</v>
+        <v>0.02955803831627666</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>54</v>
@@ -8670,19 +8670,19 @@
         <v>40619</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29804</v>
+        <v>30472</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53330</v>
+        <v>51580</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01926885064503574</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01413815778112314</v>
+        <v>0.01445538405616037</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0252985505677171</v>
+        <v>0.02446812278139402</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>383458</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>352775</v>
+        <v>350849</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>416222</v>
+        <v>416414</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4781896059049797</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4399261325493334</v>
+        <v>0.4375247734722384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5190485128969107</v>
+        <v>0.5192871108548408</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>488</v>
@@ -8795,19 +8795,19 @@
         <v>385382</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>355705</v>
+        <v>359567</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>410809</v>
+        <v>412344</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4765412319481968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4398442267752107</v>
+        <v>0.4446190473301772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5079827658095758</v>
+        <v>0.5098810836278879</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>796</v>
@@ -8816,19 +8816,19 @@
         <v>768840</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>726696</v>
+        <v>725814</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>812433</v>
+        <v>810914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4773619331852511</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4511951252702012</v>
+        <v>0.450647478709979</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5044279173319551</v>
+        <v>0.5034849340381247</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>273881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>243970</v>
+        <v>243232</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>305502</v>
+        <v>305925</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3415428418362007</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3042418627709374</v>
+        <v>0.3033208969791354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3809746611585358</v>
+        <v>0.3815020233279117</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>365</v>
@@ -8866,19 +8866,19 @@
         <v>275679</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>251096</v>
+        <v>249973</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>301946</v>
+        <v>299622</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3408888634086968</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.310490457183844</v>
+        <v>0.3091024321384808</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3733682617769338</v>
+        <v>0.3704955142707986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>601</v>
@@ -8887,19 +8887,19 @@
         <v>549561</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>510041</v>
+        <v>511699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>590314</v>
+        <v>589311</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3412144696840511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3166772721734964</v>
+        <v>0.3177068715527692</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3665174165765613</v>
+        <v>0.3658945632200469</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>103065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81725</v>
+        <v>82334</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>125525</v>
+        <v>125552</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1285268991637313</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1019145586166818</v>
+        <v>0.102674182728802</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1565356252537681</v>
+        <v>0.1565689930643264</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>122</v>
@@ -8937,19 +8937,19 @@
         <v>94859</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79479</v>
+        <v>78839</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>115280</v>
+        <v>113051</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1172968668389504</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09827964539418475</v>
+        <v>0.09748762942475891</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1425487933607764</v>
+        <v>0.1397928827071712</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>213</v>
@@ -8958,19 +8958,19 @@
         <v>197924</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>169950</v>
+        <v>172249</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>224920</v>
+        <v>224864</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.122888135363415</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1055194146752353</v>
+        <v>0.1069468113396879</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1396495420715365</v>
+        <v>0.1396147004612056</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>24497</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16171</v>
+        <v>16477</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37213</v>
+        <v>34871</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03054946083560164</v>
+        <v>0.03054946083560163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02016654631455125</v>
+        <v>0.02054717509968899</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04640623735846344</v>
+        <v>0.04348520414817786</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -9008,19 +9008,19 @@
         <v>38283</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28235</v>
+        <v>28323</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51435</v>
+        <v>49433</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04733906250041059</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03491368162323601</v>
+        <v>0.03502244592826421</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06360109293509063</v>
+        <v>0.06112608749599879</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -9029,19 +9029,19 @@
         <v>62781</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48742</v>
+        <v>47776</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79117</v>
+        <v>79409</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0389797658740248</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03026352716075039</v>
+        <v>0.02966335122403396</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04912276692820008</v>
+        <v>0.04930382421130752</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>16993</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9007</v>
+        <v>9467</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29183</v>
+        <v>29393</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02119119225948673</v>
+        <v>0.02119119225948672</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01123170637725249</v>
+        <v>0.01180590526104539</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03639245772209398</v>
+        <v>0.03665489387509395</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -9079,19 +9079,19 @@
         <v>14503</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9134</v>
+        <v>8825</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24696</v>
+        <v>23475</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01793397530374547</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01129447022536936</v>
+        <v>0.01091259468402399</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03053815661606733</v>
+        <v>0.02902722100747023</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -9100,19 +9100,19 @@
         <v>31496</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21493</v>
+        <v>21544</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46498</v>
+        <v>46744</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.019555695893258</v>
+        <v>0.01955569589325799</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01334454208513495</v>
+        <v>0.01337625681116629</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02886984442950406</v>
+        <v>0.02902292333497376</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>494054</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>464700</v>
+        <v>461913</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>525526</v>
+        <v>526122</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5003725512785508</v>
+        <v>0.500372551278551</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4706432849416577</v>
+        <v>0.4678204090331248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5322467779607668</v>
+        <v>0.5328507220138131</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>743</v>
@@ -9225,19 +9225,19 @@
         <v>551351</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>523691</v>
+        <v>522807</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>583981</v>
+        <v>582044</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4953387068134403</v>
+        <v>0.4953387068134402</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4704886814777216</v>
+        <v>0.4696942268145057</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5246532823225379</v>
+        <v>0.5229138628246072</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1209</v>
@@ -9246,19 +9246,19 @@
         <v>1045405</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>998902</v>
+        <v>1000353</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1089873</v>
+        <v>1090462</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4977049973608616</v>
+        <v>0.4977049973608618</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4755652633932356</v>
+        <v>0.4762563155274444</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5188759377384493</v>
+        <v>0.5191563609863449</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>283262</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>257711</v>
+        <v>256644</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>311051</v>
+        <v>313102</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2868845187570491</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2610074449810098</v>
+        <v>0.2599259723761728</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3150291440262042</v>
+        <v>0.3171063374838591</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>441</v>
@@ -9296,19 +9296,19 @@
         <v>305778</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>279852</v>
+        <v>279892</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>331628</v>
+        <v>332605</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2747134579593266</v>
+        <v>0.2747134579593265</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2514214799020491</v>
+        <v>0.2514574322192445</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2979377894063691</v>
+        <v>0.2988152348508306</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>749</v>
@@ -9317,19 +9317,19 @@
         <v>589040</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>550009</v>
+        <v>552984</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>631270</v>
+        <v>632466</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2804347841380266</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2618526050344085</v>
+        <v>0.2632693514424793</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3005404235203589</v>
+        <v>0.3011096086410186</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>126516</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>105305</v>
+        <v>106331</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>149229</v>
+        <v>149434</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.128133810711606</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1066514705435645</v>
+        <v>0.1076906050157049</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1511374483481595</v>
+        <v>0.1513454537943979</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>206</v>
@@ -9367,19 +9367,19 @@
         <v>142935</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>124762</v>
+        <v>125208</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>162392</v>
+        <v>161538</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1284138517506215</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.11208689394931</v>
+        <v>0.1124876850627797</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1458943205799393</v>
+        <v>0.1451269135996983</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>343</v>
@@ -9388,19 +9388,19 @@
         <v>269450</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>242736</v>
+        <v>242507</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>301725</v>
+        <v>298563</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.12828221111927</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1155635730096078</v>
+        <v>0.115454748085902</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1436478497017602</v>
+        <v>0.1421422722100515</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>53582</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40358</v>
+        <v>41329</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66621</v>
+        <v>68630</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05426710159859877</v>
+        <v>0.05426710159859879</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04087428382169665</v>
+        <v>0.0418578040729996</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06747341590612793</v>
+        <v>0.06950779552702037</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>115</v>
@@ -9438,19 +9438,19 @@
         <v>78792</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64499</v>
+        <v>65751</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>95142</v>
+        <v>95263</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07078750697407531</v>
+        <v>0.07078750697407529</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05794689813201671</v>
+        <v>0.05907130506195683</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08547624457077377</v>
+        <v>0.08558509822181845</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>173</v>
@@ -9459,19 +9459,19 @@
         <v>132374</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113087</v>
+        <v>113717</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>152277</v>
+        <v>154440</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06302165736340386</v>
+        <v>0.06302165736340387</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05383920942836545</v>
+        <v>0.05413915122346917</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07249750922418681</v>
+        <v>0.07352714117141151</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>29959</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20979</v>
+        <v>20539</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41606</v>
+        <v>41414</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03034201765419512</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02124694960439772</v>
+        <v>0.02080202579797581</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04213777534317927</v>
+        <v>0.04194395388492118</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -9509,19 +9509,19 @@
         <v>34223</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24571</v>
+        <v>25485</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44196</v>
+        <v>44862</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.03074647650253642</v>
+        <v>0.03074647650253641</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02207479355555221</v>
+        <v>0.02289602499460457</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03970574348289046</v>
+        <v>0.04030459800790898</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>84</v>
@@ -9530,19 +9530,19 @@
         <v>64182</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>51538</v>
+        <v>49870</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>79020</v>
+        <v>78223</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.03055635001843775</v>
+        <v>0.03055635001843776</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02453645900357126</v>
+        <v>0.02374275033918762</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03762056539638356</v>
+        <v>0.03724126682156781</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1788731</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1729395</v>
+        <v>1721750</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1856680</v>
+        <v>1852769</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5081329457862631</v>
+        <v>0.508132945786263</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4912771269211597</v>
+        <v>0.4891052680597979</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5274354314105797</v>
+        <v>0.5263244546023821</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2465</v>
@@ -9655,19 +9655,19 @@
         <v>1809071</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1754616</v>
+        <v>1752738</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1863596</v>
+        <v>1861693</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.486850510414971</v>
+        <v>0.4868505104149708</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4721959335514617</v>
+        <v>0.4716904751232796</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5015241422672548</v>
+        <v>0.5010120718570132</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4057</v>
@@ -9676,19 +9676,19 @@
         <v>3597802</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3515996</v>
+        <v>3511563</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3687926</v>
+        <v>3685476</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4972039903181784</v>
+        <v>0.4972039903181783</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4858987311441529</v>
+        <v>0.4852860949800171</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5096588339472395</v>
+        <v>0.5093202133970539</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1080083</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1026859</v>
+        <v>1017433</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1139401</v>
+        <v>1138687</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3068240288475458</v>
+        <v>0.3068240288475457</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2917046082740722</v>
+        <v>0.289026836372174</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3236748106418566</v>
+        <v>0.3234718472283101</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1730</v>
@@ -9726,19 +9726,19 @@
         <v>1149437</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1098506</v>
+        <v>1101234</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1200113</v>
+        <v>1199673</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3093323551735215</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2956259480723715</v>
+        <v>0.2963599591000433</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3229700576082521</v>
+        <v>0.3228516757916096</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2829</v>
@@ -9747,19 +9747,19 @@
         <v>2229520</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2147162</v>
+        <v>2148346</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2304410</v>
+        <v>2303180</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3081121044947995</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2967305299947318</v>
+        <v>0.2968941229853401</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3184616597069653</v>
+        <v>0.318291645786262</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>417958</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>377541</v>
+        <v>379350</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>460827</v>
+        <v>460346</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1187311763251175</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1072496545518532</v>
+        <v>0.1077636107249297</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.130909252162428</v>
+        <v>0.1307725873249175</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>704</v>
@@ -9797,19 +9797,19 @@
         <v>460287</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>425027</v>
+        <v>427070</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>493112</v>
+        <v>495987</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1238707563560153</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1143817855817357</v>
+        <v>0.1149315254547922</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1327046030263657</v>
+        <v>0.1334782271263517</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1134</v>
@@ -9818,19 +9818,19 @@
         <v>878245</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>827958</v>
+        <v>824098</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>935581</v>
+        <v>931856</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1213704532829655</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1144209460555365</v>
+        <v>0.1138875296754333</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1292940566466933</v>
+        <v>0.1287793280745901</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>153256</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>129857</v>
+        <v>129024</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>179462</v>
+        <v>178939</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.0435360780946171</v>
+        <v>0.04353607809461708</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03688918018606202</v>
+        <v>0.03665254858208771</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05098055892489265</v>
+        <v>0.05083193492013729</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>311</v>
@@ -9868,19 +9868,19 @@
         <v>213419</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>189845</v>
+        <v>189880</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>240429</v>
+        <v>240971</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.05743458399546433</v>
+        <v>0.05743458399546432</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05109045912651058</v>
+        <v>0.05109976495678555</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06470327219471071</v>
+        <v>0.06484936529486611</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>467</v>
@@ -9889,19 +9889,19 @@
         <v>366675</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>333933</v>
+        <v>336055</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>401547</v>
+        <v>405247</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.05067323835909349</v>
+        <v>0.05067323835909347</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0461484674373951</v>
+        <v>0.04644164347736956</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05549239317743873</v>
+        <v>0.05600376881242346</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>80175</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>64236</v>
+        <v>64933</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>101389</v>
+        <v>100101</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02277577094645663</v>
+        <v>0.02277577094645662</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01824789768712055</v>
+        <v>0.01844570118050261</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02880197076239107</v>
+        <v>0.02843606583551151</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>124</v>
@@ -9939,19 +9939,19 @@
         <v>83651</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>69767</v>
+        <v>68915</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>100248</v>
+        <v>100802</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02251179406002792</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0187753547516629</v>
+        <v>0.018546191980081</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02697839398951801</v>
+        <v>0.02712754861250469</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>211</v>
@@ -9960,19 +9960,19 @@
         <v>163826</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>141990</v>
+        <v>141416</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>190535</v>
+        <v>188326</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02264021354496325</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01962254167964091</v>
+        <v>0.01954319113614253</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02633130728570672</v>
+        <v>0.02602596457424007</v>
       </c>
     </row>
     <row r="33">
